--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H2">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I2">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J2">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>0.07150076915250002</v>
+        <v>1.0985879832555</v>
       </c>
       <c r="R2">
-        <v>0.2860030766100001</v>
+        <v>4.394351933022</v>
       </c>
       <c r="S2">
-        <v>2.136365159555333E-06</v>
+        <v>1.53511886165445E-05</v>
       </c>
       <c r="T2">
-        <v>9.542084005249596E-07</v>
+        <v>6.894443859115555E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H3">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I3">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J3">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>0.006406371677500001</v>
+        <v>0.03781695833683333</v>
       </c>
       <c r="R3">
-        <v>0.038438230065</v>
+        <v>0.226901750021</v>
       </c>
       <c r="S3">
-        <v>1.914154129137017E-07</v>
+        <v>5.284376574122035E-07</v>
       </c>
       <c r="T3">
-        <v>1.282436624951035E-07</v>
+        <v>3.559936484147376E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H4">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I4">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J4">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>11.1311608239725</v>
+        <v>77.50721195920534</v>
       </c>
       <c r="R4">
-        <v>66.786964943835</v>
+        <v>465.043271755232</v>
       </c>
       <c r="S4">
-        <v>0.0003325869700649314</v>
+        <v>0.00108305192489215</v>
       </c>
       <c r="T4">
-        <v>0.0002228251659050338</v>
+        <v>0.0007296217458329399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H5">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I5">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J5">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>0.31234707247125</v>
+        <v>3.57028622531475</v>
       </c>
       <c r="R5">
-        <v>1.249388289885</v>
+        <v>14.281144901259</v>
       </c>
       <c r="S5">
-        <v>9.332590561277225E-06</v>
+        <v>4.98896202172554E-05</v>
       </c>
       <c r="T5">
-        <v>4.168405514572344E-06</v>
+        <v>2.240615983115242E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H6">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I6">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J6">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>0.13832576366</v>
+        <v>75.56714909296068</v>
       </c>
       <c r="R6">
-        <v>0.8299545819600002</v>
+        <v>453.402894557764</v>
       </c>
       <c r="S6">
-        <v>4.133023261915172E-06</v>
+        <v>0.001055942333815594</v>
       </c>
       <c r="T6">
-        <v>2.769024877450297E-06</v>
+        <v>0.000711358773656362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H7">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I7">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J7">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>15.9708330818775</v>
+        <v>29.732404026641</v>
       </c>
       <c r="R7">
-        <v>95.82499849126502</v>
+        <v>178.394424159846</v>
       </c>
       <c r="S7">
-        <v>0.0004771911095449222</v>
+        <v>0.0004154676268019229</v>
       </c>
       <c r="T7">
-        <v>0.0003197064158346176</v>
+        <v>0.0002798889030500298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.375623</v>
       </c>
       <c r="I8">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J8">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>0.03972375994966667</v>
+        <v>0.103395113849</v>
       </c>
       <c r="R8">
-        <v>0.238342559698</v>
+        <v>0.6203706830939999</v>
       </c>
       <c r="S8">
-        <v>1.186902711242235E-06</v>
+        <v>1.444798158106146E-06</v>
       </c>
       <c r="T8">
-        <v>7.951958956601702E-07</v>
+        <v>9.73320050743268E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.375623</v>
       </c>
       <c r="I9">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J9">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>0.003559194868555555</v>
@@ -1013,10 +1013,10 @@
         <v>0.032032753817</v>
       </c>
       <c r="S9">
-        <v>1.063448687808185E-07</v>
+        <v>4.973463444258924E-08</v>
       </c>
       <c r="T9">
-        <v>1.068727062185059E-07</v>
+        <v>5.025724525716324E-08</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.375623</v>
       </c>
       <c r="I10">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J10">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>6.184151104578111</v>
+        <v>7.294697490584888</v>
       </c>
       <c r="R10">
-        <v>55.657359941203</v>
+        <v>65.652277415264</v>
       </c>
       <c r="S10">
-        <v>0.0001847757040636585</v>
+        <v>0.0001019329164212773</v>
       </c>
       <c r="T10">
-        <v>0.0001856928290297991</v>
+        <v>0.0001030040260228633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.375623</v>
       </c>
       <c r="I11">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J11">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>0.1735310021821667</v>
+        <v>0.3360223817905</v>
       </c>
       <c r="R11">
-        <v>1.041186013093</v>
+        <v>2.016134290743</v>
       </c>
       <c r="S11">
-        <v>5.184917470943584E-06</v>
+        <v>4.695429989103397E-06</v>
       </c>
       <c r="T11">
-        <v>3.473768366335446E-06</v>
+        <v>3.163179666041506E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.375623</v>
       </c>
       <c r="I12">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J12">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>0.07684979470311111</v>
+        <v>7.112105814736444</v>
       </c>
       <c r="R12">
-        <v>0.691648152328</v>
+        <v>64.008952332628</v>
       </c>
       <c r="S12">
-        <v>2.29618822103211E-06</v>
+        <v>9.93814600987221E-05</v>
       </c>
       <c r="T12">
-        <v>2.307585236430525E-06</v>
+        <v>0.0001004257590344205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.375623</v>
       </c>
       <c r="I13">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J13">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>8.872933075553</v>
+        <v>2.798305958371333</v>
       </c>
       <c r="R13">
-        <v>79.85639767997701</v>
+        <v>25.18475362534199</v>
       </c>
       <c r="S13">
-        <v>0.000265113582837798</v>
+        <v>3.910230516672966E-05</v>
       </c>
       <c r="T13">
-        <v>0.000266429460847386</v>
+        <v>3.95131916200823E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H14">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I14">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J14">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>56.21371461428133</v>
+        <v>269.8170211902059</v>
       </c>
       <c r="R14">
-        <v>337.282287685688</v>
+        <v>1618.902127141236</v>
       </c>
       <c r="S14">
-        <v>0.001679604608658089</v>
+        <v>0.003770305198470138</v>
       </c>
       <c r="T14">
-        <v>0.001125294161421992</v>
+        <v>0.00253994900706605</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H15">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I15">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J15">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>5.036672380739111</v>
+        <v>9.287976206221998</v>
       </c>
       <c r="R15">
-        <v>45.330051426652</v>
+        <v>83.591785855998</v>
       </c>
       <c r="S15">
-        <v>0.000150490288731802</v>
+        <v>0.0001297861225326465</v>
       </c>
       <c r="T15">
-        <v>0.0001512372397536208</v>
+        <v>0.0001311499132185011</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H16">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I16">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J16">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>8751.289046274274</v>
+        <v>19036.04023559302</v>
       </c>
       <c r="R16">
-        <v>78761.60141646846</v>
+        <v>171324.3621203372</v>
       </c>
       <c r="S16">
-        <v>0.2614789916424959</v>
+        <v>0.2660013113403548</v>
       </c>
       <c r="T16">
-        <v>0.2627768295404588</v>
+        <v>0.2687964492468735</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H17">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I17">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J17">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>245.5664379645513</v>
+        <v>876.874687138107</v>
       </c>
       <c r="R17">
-        <v>1473.398627787308</v>
+        <v>5261.248122828642</v>
       </c>
       <c r="S17">
-        <v>0.007337257887459107</v>
+        <v>0.01225306386061195</v>
       </c>
       <c r="T17">
-        <v>0.004915784000022325</v>
+        <v>0.008254545918167719</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H18">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I18">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J18">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>108.7513476337742</v>
+        <v>18559.55406291465</v>
       </c>
       <c r="R18">
-        <v>978.762128703968</v>
+        <v>167035.9865662318</v>
       </c>
       <c r="S18">
-        <v>0.003249371900377132</v>
+        <v>0.2593431016917426</v>
       </c>
       <c r="T18">
-        <v>0.003265499995297473</v>
+        <v>0.262068275228219</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H19">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I19">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J19">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>12556.22650858707</v>
+        <v>7302.381611274371</v>
       </c>
       <c r="R19">
-        <v>113006.0385772836</v>
+        <v>65721.43450146934</v>
       </c>
       <c r="S19">
-        <v>0.3751663816541279</v>
+        <v>0.1020402909673806</v>
       </c>
       <c r="T19">
-        <v>0.3770285012266941</v>
+        <v>0.1031125288591336</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H20">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I20">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J20">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>0.008954906806500001</v>
+        <v>1.5637747458915</v>
       </c>
       <c r="R20">
-        <v>0.035819627226</v>
+        <v>6.255098983566</v>
       </c>
       <c r="S20">
-        <v>2.675628686968133E-07</v>
+        <v>2.185150524478867E-05</v>
       </c>
       <c r="T20">
-        <v>1.195070682730085E-07</v>
+        <v>9.813831352772232E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H21">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I21">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J21">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>0.0008023474715</v>
+        <v>0.0538301941355</v>
       </c>
       <c r="R21">
-        <v>0.004814084828999999</v>
+        <v>0.322981164813</v>
       </c>
       <c r="S21">
-        <v>2.39732691590211E-08</v>
+        <v>7.521996199070758E-07</v>
       </c>
       <c r="T21">
-        <v>1.606150618769584E-08</v>
+        <v>5.067358150405631E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H22">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I22">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J22">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>1.3940900078185</v>
+        <v>110.326912849616</v>
       </c>
       <c r="R22">
-        <v>8.364540046911001</v>
+        <v>661.9614770976959</v>
       </c>
       <c r="S22">
-        <v>4.16538920810131E-05</v>
+        <v>0.001541660089542076</v>
       </c>
       <c r="T22">
-        <v>2.790709272744531E-05</v>
+        <v>0.001038573220877351</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H23">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I23">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J23">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>0.03911900471025</v>
+        <v>5.082090392256751</v>
       </c>
       <c r="R23">
-        <v>0.156476018841</v>
+        <v>20.328361569027</v>
       </c>
       <c r="S23">
-        <v>1.168833282914929E-06</v>
+        <v>7.101491129246924E-05</v>
       </c>
       <c r="T23">
-        <v>5.220598793151705E-07</v>
+        <v>3.189383775392693E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H24">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I24">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J24">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>0.017324209756</v>
+        <v>107.565348585382</v>
       </c>
       <c r="R24">
-        <v>0.103945258536</v>
+        <v>645.3920915122919</v>
       </c>
       <c r="S24">
-        <v>5.176285315282224E-07</v>
+        <v>0.001503071196760508</v>
       </c>
       <c r="T24">
-        <v>3.467985032379262E-07</v>
+        <v>0.001012576964673983</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H25">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I25">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J25">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>2.0002207467915</v>
+        <v>42.32231123967299</v>
       </c>
       <c r="R25">
-        <v>12.001324480749</v>
+        <v>253.933867438038</v>
       </c>
       <c r="S25">
-        <v>5.976441883794336E-05</v>
+        <v>0.0005913934909455681</v>
       </c>
       <c r="T25">
-        <v>4.004070436127658E-05</v>
+        <v>0.0003984052300917245</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H26">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I26">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J26">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>0.1551456256646667</v>
+        <v>41.66721268330999</v>
       </c>
       <c r="R26">
-        <v>0.9308737539880001</v>
+        <v>250.00327609986</v>
       </c>
       <c r="S26">
-        <v>4.635582431574706E-06</v>
+        <v>0.0005822394298649495</v>
       </c>
       <c r="T26">
-        <v>3.105727275426438E-06</v>
+        <v>0.000392238395544279</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H27">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I27">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J27">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>0.01390083706688889</v>
+        <v>1.434320482358889</v>
       </c>
       <c r="R27">
-        <v>0.125107533602</v>
+        <v>12.90888434123</v>
       </c>
       <c r="S27">
-        <v>4.153418816379042E-07</v>
+        <v>2.004256791159849E-05</v>
       </c>
       <c r="T27">
-        <v>4.174034102953877E-07</v>
+        <v>2.025317492338877E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H28">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I28">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J28">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>24.15289976427978</v>
+        <v>2939.691253152462</v>
       </c>
       <c r="R28">
-        <v>217.376097878518</v>
+        <v>26457.22127837216</v>
       </c>
       <c r="S28">
-        <v>0.0007216623565067676</v>
+        <v>0.04107796151913132</v>
       </c>
       <c r="T28">
-        <v>0.0007252442915216012</v>
+        <v>0.04150960814066895</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H29">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I29">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J29">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>0.6777449048096668</v>
+        <v>135.413710834195</v>
       </c>
       <c r="R29">
-        <v>4.066469428858</v>
+        <v>812.48226500517</v>
       </c>
       <c r="S29">
-        <v>2.025028008598551E-05</v>
+        <v>0.001892212046705487</v>
       </c>
       <c r="T29">
-        <v>1.356719422562521E-05</v>
+        <v>0.001274730255560791</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H30">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I30">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J30">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>0.3001455425297778</v>
+        <v>2866.108605882591</v>
       </c>
       <c r="R30">
-        <v>2.701309882768</v>
+        <v>25794.97745294332</v>
       </c>
       <c r="S30">
-        <v>8.968022126990376E-06</v>
+        <v>0.04004974974696437</v>
       </c>
       <c r="T30">
-        <v>9.01253445631009E-06</v>
+        <v>0.04047059193417109</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H31">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I31">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J31">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>34.654241069618</v>
+        <v>1127.689744514553</v>
       </c>
       <c r="R31">
-        <v>311.888169626562</v>
+        <v>10149.20770063098</v>
       </c>
       <c r="S31">
-        <v>0.001035431004861783</v>
+        <v>0.0157578439167759</v>
       </c>
       <c r="T31">
-        <v>0.001040570314870568</v>
+        <v>0.01592342711121522</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H32">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I32">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J32">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N32">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O32">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P32">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q32">
-        <v>30.11856657487</v>
+        <v>105.021411419817</v>
       </c>
       <c r="R32">
-        <v>180.71139944922</v>
+        <v>630.128468518902</v>
       </c>
       <c r="S32">
-        <v>0.0008999099876682976</v>
+        <v>0.001467523329996573</v>
       </c>
       <c r="T32">
-        <v>0.0006029177639239355</v>
+        <v>0.000988629362520447</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H33">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I33">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J33">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O33">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P33">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q33">
-        <v>2.698582604903333</v>
+        <v>3.615177300929</v>
       </c>
       <c r="R33">
-        <v>24.28724344413</v>
+        <v>32.536595708361</v>
       </c>
       <c r="S33">
-        <v>8.06307110487353E-05</v>
+        <v>5.051690849953914E-05</v>
       </c>
       <c r="T33">
-        <v>8.103091755053267E-05</v>
+        <v>5.104773943851347E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H34">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I34">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J34">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N34">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O34">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P34">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q34">
-        <v>4688.825201549296</v>
+        <v>7409.435492867167</v>
       </c>
       <c r="R34">
-        <v>42199.42681394367</v>
+        <v>66684.91943580451</v>
       </c>
       <c r="S34">
-        <v>0.1400969936207279</v>
+        <v>0.1035362151477946</v>
       </c>
       <c r="T34">
-        <v>0.140792358042051</v>
+        <v>0.1046241721890544</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H35">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I35">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J35">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N35">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O35">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P35">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q35">
-        <v>131.571257319295</v>
+        <v>341.3076642656865</v>
       </c>
       <c r="R35">
-        <v>789.42754391577</v>
+        <v>2047.845985594119</v>
       </c>
       <c r="S35">
-        <v>0.003931205964180924</v>
+        <v>0.004769284217808751</v>
       </c>
       <c r="T35">
-        <v>0.00263381220558477</v>
+        <v>0.003212933191285008</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H36">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I36">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J36">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N36">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O36">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P36">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q36">
-        <v>58.26753713554666</v>
+        <v>7223.971839922036</v>
       </c>
       <c r="R36">
-        <v>524.40783421992</v>
+        <v>65015.74655929832</v>
       </c>
       <c r="S36">
-        <v>0.001740970590176176</v>
+        <v>0.1009446270717653</v>
       </c>
       <c r="T36">
-        <v>0.001749611810631312</v>
+        <v>0.1020053517432564</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H37">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I37">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J37">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N37">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O37">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P37">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q37">
-        <v>6727.460489365169</v>
+        <v>2842.320399799853</v>
       </c>
       <c r="R37">
-        <v>60547.14440428653</v>
+        <v>25580.88359819868</v>
       </c>
       <c r="S37">
-        <v>0.2010091971334031</v>
+        <v>0.03971734374581444</v>
       </c>
       <c r="T37">
-        <v>0.2020068962305279</v>
+        <v>0.04013469301560098</v>
       </c>
     </row>
   </sheetData>
